--- a/www/tasks.xlsx
+++ b/www/tasks.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Безопасная аутентификация по «небезопасному» HTTP-протоколу</t>
   </si>
@@ -34,6 +34,21 @@
   </si>
   <si>
     <t>https &lt;----- http</t>
+  </si>
+  <si>
+    <t>after new exch name workout</t>
+  </si>
+  <si>
+    <t>change  /img/logoexch.png  and other images</t>
+  </si>
+  <si>
+    <t>Check login (exist in db or no, is email?) and pass</t>
+  </si>
+  <si>
+    <t>signup</t>
+  </si>
+  <si>
+    <t>php</t>
   </si>
 </sst>
 </file>
@@ -393,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:C12"/>
+  <dimension ref="B5:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,6 +453,35 @@
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
